--- a/tosdr/Time sheet (01.12.20).xlsx
+++ b/tosdr/Time sheet (01.12.20).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be31f6d4f559c2bb/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9917A310-D332-4F4D-978A-3A3FDAB21656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{9917A310-D332-4F4D-978A-3A3FDAB21656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0C10108-B228-4CB2-9EDA-B9AE6B4C9329}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>Worked on edit.tosdr.org, tosdr.org, crisp now has submodules, added classification; legal and imprint pages, added png badges, added service slugs</t>
+  </si>
+  <si>
+    <t>Added universes, added twitter link, fixed critical bugs, added beta, added dev, added crashreporter, twig cache, error handling, fixed footer, added featured browser, added maintenance</t>
+  </si>
+  <si>
+    <t>Create crons using the plugin system now</t>
+  </si>
+  <si>
+    <t>Fix bug in cron, update submodules, fix dependencies, add Theme system like plugins, rework CLI, fix render bug</t>
+  </si>
+  <si>
+    <t>Cleanup all plugin files on deletion</t>
+  </si>
+  <si>
+    <t>Add plugin versioning, repositories, improve kv storage, add DB Migration system, install themes and plugins in migration</t>
+  </si>
+  <si>
+    <t>Completely overhaul docs</t>
+  </si>
+  <si>
+    <t>Add API Stats to DB, sort migrations by timestamp, fix translations, add crisp versioning, add plugin migration</t>
+  </si>
+  <si>
+    <t>Add Translation Website, seperate translations in new files, add translation status, translate to german 100%</t>
   </si>
 </sst>
 </file>
@@ -399,8 +423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TimeSheet" displayName="TimeSheet" ref="B7:E33" totalsRowShown="0">
-  <autoFilter ref="B7:E33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TimeSheet" displayName="TimeSheet" ref="B7:E41" totalsRowShown="0">
+  <autoFilter ref="B7:E41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Time In" dataCellStyle="Time"/>
@@ -685,10 +709,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H33"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -728,7 +752,7 @@
         <v>44105</v>
       </c>
       <c r="C4" s="9">
-        <v>44166</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,8 +765,8 @@
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
-        <f>D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22 + D23 + D24 + D25 + D26 + D27 + D28 + D29 + D30 + D31 + D32 + D33</f>
-        <v>90</v>
+        <f>D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22 + D23 + D24 + D25 + D26 + D27 + D28 + D29 + D30 + D31 + D32 + D33 + D34 + D35 + D36 + D37 + D38 +D39 + D40 + D41 + D42 + D43 + D44 + D45 + D46 + D47</f>
+        <v>146.36000000000001</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1099,25 +1123,138 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="14">
+        <v>44185</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="D32" s="16">
+        <v>18.34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
+        <v>44188</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D33" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14">
+        <v>44189</v>
+      </c>
+      <c r="C34" s="15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D34" s="16">
+        <v>8.39</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14">
+        <v>44189</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="D35" s="16">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
+        <v>44190</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="D36" s="16">
+        <v>10.28</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14">
+        <v>44191</v>
+      </c>
+      <c r="C37" s="15">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="D37" s="16">
+        <v>2.02</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14">
+        <v>44191</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="D38" s="16">
+        <v>6.36</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14">
+        <v>44191</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="D39" s="16">
+        <v>7.51</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16">
         <f>IFERROR(IF(COUNT(#REF!)=4,(IF(#REF!&lt;TimeSheet[[#This Row],[Time In]],1,0)+#REF!)-#REF!+#REF!-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(#REF!)&lt;&gt;0),(IF(#REF!&lt;TimeSheet[[#This Row],[Time In]],1,0)+#REF!)-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16">
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16">
         <f>IFERROR(IF(COUNT(#REF!)=4,(IF(#REF!&lt;TimeSheet[[#This Row],[Time In]],1,0)+#REF!)-#REF!+#REF!-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(#REF!)&lt;&gt;0),(IF(#REF!&lt;TimeSheet[[#This Row],[Time In]],1,0)+#REF!)-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E41" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="22">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:E1 D3:E4 A2:A1048576 B8:D1048576 F7:XFD33 F1:XFD6 E9:E10 E33 E34:XFD1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:E1 D3:E4 A2:A1048576 F1:XFD33 E9:E10 E33 E34:XFD1048576 B8:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use this worksheet to track hours worked in a work week. Enter Date and Times in TimeSheet table. Total Hours, Regular Hours and Overtime Hours are automatically calculated" sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell.  Enter Employee and Manager details in cells below" sqref="B1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Name, Email and Phone in cells at right" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
@@ -1138,7 +1275,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Overtime Hours are automatically calculated in this cell" sqref="E6" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date in this column under this heading. Use heading filters to find specific entries" sqref="B7" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Time In in this column under this heading" sqref="C7" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Hours Worked are automatically calculated in this column under this heading" sqref="D7 E7" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Hours Worked are automatically calculated in this column under this heading" sqref="D7:E7" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{B6F5F7A3-8A2E-4654-AD2C-B8E5C0456AAD}"/>
